--- a/biology/Zoologie/Anomalepididae/Anomalepididae.xlsx
+++ b/biology/Zoologie/Anomalepididae/Anomalepididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anomalepididae sont une famille de serpents. Le nom de cette famille est fréquemment écrit Anomalepidae alors que la règle de construction des noms basés sur "lepis"" impose Anomalepididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontre en Amérique du Sud et en Amérique centrale.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents non venimeux.
 Ils atteignent au plus une trentaine de centimètres, avec une queue courte et une tête peu marquée. Ce sont des fouisseurs dont les yeux sont quasiment atrophiés. Ils sont ovipares, et plusieurs espèces sont capables de conserver les œufs dans le corps jusqu'à ce que le développement de l'embryon soit bien avancé.
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 juil. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 juil. 2011) :
 Anomalepis Jan, 1860
 Helminthophis Peters, 1860
 Liotyphlops Peters, 1881
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1939 : Two new species of the genus Anomalepis Jan, with a proposal of a new family of snakes. Proceedings of the New England Zoological Club, Boston, vol. 17, p. 87-96.</t>
         </is>
